--- a/outputs/wl_seniors_monthly.xlsx
+++ b/outputs/wl_seniors_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>8661.153120940737</v>
       </c>
       <c r="D2" t="n">
-        <v>7455.604266285068</v>
+        <v>7403.349043550865</v>
       </c>
       <c r="E2" t="n">
-        <v>9415.485706082794</v>
+        <v>9435.635914665678</v>
       </c>
       <c r="F2" t="n">
         <v>8661.153120940737</v>
@@ -583,10 +583,10 @@
         <v>8600.063570983675</v>
       </c>
       <c r="D3" t="n">
-        <v>7442.191645964203</v>
+        <v>7393.923625011192</v>
       </c>
       <c r="E3" t="n">
-        <v>9435.521087585037</v>
+        <v>9438.825320944487</v>
       </c>
       <c r="F3" t="n">
         <v>8600.063570983675</v>
@@ -636,10 +636,10 @@
         <v>8542.915282314163</v>
       </c>
       <c r="D4" t="n">
-        <v>7653.109993774358</v>
+        <v>7594.564334958476</v>
       </c>
       <c r="E4" t="n">
-        <v>9622.167606221843</v>
+        <v>9762.888233079842</v>
       </c>
       <c r="F4" t="n">
         <v>8542.915282314163</v>
@@ -689,10 +689,10 @@
         <v>8481.825732370547</v>
       </c>
       <c r="D5" t="n">
-        <v>7192.575812595675</v>
+        <v>7223.994718303971</v>
       </c>
       <c r="E5" t="n">
-        <v>9285.383763979054</v>
+        <v>9220.015044912654</v>
       </c>
       <c r="F5" t="n">
         <v>8481.825732370547</v>
@@ -742,10 +742,10 @@
         <v>8422.706813070274</v>
       </c>
       <c r="D6" t="n">
-        <v>7145.122817282927</v>
+        <v>7194.62137563521</v>
       </c>
       <c r="E6" t="n">
-        <v>9112.713751291089</v>
+        <v>9224.510779745488</v>
       </c>
       <c r="F6" t="n">
         <v>8422.706813070274</v>
@@ -795,10 +795,10 @@
         <v>8361.617263126658</v>
       </c>
       <c r="D7" t="n">
-        <v>7343.881777713367</v>
+        <v>7278.653304164467</v>
       </c>
       <c r="E7" t="n">
-        <v>9297.00625838361</v>
+        <v>9309.17941490166</v>
       </c>
       <c r="F7" t="n">
         <v>8361.617263126658</v>
@@ -848,10 +848,10 @@
         <v>8302.498343965761</v>
       </c>
       <c r="D8" t="n">
-        <v>7138.132215884214</v>
+        <v>7214.912386857098</v>
       </c>
       <c r="E8" t="n">
-        <v>9154.673010563749</v>
+        <v>9255.254177203029</v>
       </c>
       <c r="F8" t="n">
         <v>8302.498343965761</v>
@@ -901,10 +901,10 @@
         <v>8241.408794166169</v>
       </c>
       <c r="D9" t="n">
-        <v>7783.252026982988</v>
+        <v>7810.887641784798</v>
       </c>
       <c r="E9" t="n">
-        <v>9773.320455829949</v>
+        <v>9946.705206253699</v>
       </c>
       <c r="F9" t="n">
         <v>8241.408794166169</v>
@@ -954,10 +954,10 @@
         <v>8180.319244315317</v>
       </c>
       <c r="D10" t="n">
-        <v>7579.152196535324</v>
+        <v>7561.390478981621</v>
       </c>
       <c r="E10" t="n">
-        <v>9539.970683262251</v>
+        <v>9557.902937534018</v>
       </c>
       <c r="F10" t="n">
         <v>8180.319244315317</v>
@@ -1007,10 +1007,10 @@
         <v>8121.200325104815</v>
       </c>
       <c r="D11" t="n">
-        <v>7246.810782086603</v>
+        <v>7329.364909236157</v>
       </c>
       <c r="E11" t="n">
-        <v>9433.558751256282</v>
+        <v>9383.690281625199</v>
       </c>
       <c r="F11" t="n">
         <v>8121.200325104815</v>
@@ -1060,10 +1060,10 @@
         <v>8060.110775324954</v>
       </c>
       <c r="D12" t="n">
-        <v>6259.504703315658</v>
+        <v>6289.728513996667</v>
       </c>
       <c r="E12" t="n">
-        <v>8364.180931668297</v>
+        <v>8332.218737675688</v>
       </c>
       <c r="F12" t="n">
         <v>8060.110775324954</v>
@@ -1113,10 +1113,10 @@
         <v>8000.991856183153</v>
       </c>
       <c r="D13" t="n">
-        <v>6772.484270767916</v>
+        <v>6866.167382322951</v>
       </c>
       <c r="E13" t="n">
-        <v>8830.970689056094</v>
+        <v>8801.737433456839</v>
       </c>
       <c r="F13" t="n">
         <v>8000.991856183153</v>
@@ -1166,10 +1166,10 @@
         <v>7939.902306403293</v>
       </c>
       <c r="D14" t="n">
-        <v>6733.058823423062</v>
+        <v>6753.272974596799</v>
       </c>
       <c r="E14" t="n">
-        <v>8814.82430908348</v>
+        <v>8761.300332230343</v>
       </c>
       <c r="F14" t="n">
         <v>7939.902306403293</v>
@@ -1219,10 +1219,10 @@
         <v>7878.812756784079</v>
       </c>
       <c r="D15" t="n">
-        <v>5696.597731843591</v>
+        <v>5631.953450048178</v>
       </c>
       <c r="E15" t="n">
-        <v>7726.304231218309</v>
+        <v>7653.164982333391</v>
       </c>
       <c r="F15" t="n">
         <v>7878.812756784079</v>
@@ -1272,10 +1272,10 @@
         <v>7823.635099063499</v>
       </c>
       <c r="D16" t="n">
-        <v>6833.484569346608</v>
+        <v>6784.533868027273</v>
       </c>
       <c r="E16" t="n">
-        <v>8870.965965356803</v>
+        <v>8959.411416615683</v>
       </c>
       <c r="F16" t="n">
         <v>7823.635099063499</v>
@@ -1325,10 +1325,10 @@
         <v>7762.545549604096</v>
       </c>
       <c r="D17" t="n">
-        <v>6295.163893712465</v>
+        <v>6299.203838795697</v>
       </c>
       <c r="E17" t="n">
-        <v>8239.502487887417</v>
+        <v>8263.557565458716</v>
       </c>
       <c r="F17" t="n">
         <v>7762.545549604096</v>
@@ -1378,10 +1378,10 @@
         <v>7703.426630772415</v>
       </c>
       <c r="D18" t="n">
-        <v>6594.512998470258</v>
+        <v>6455.865369577699</v>
       </c>
       <c r="E18" t="n">
-        <v>8549.754594173421</v>
+        <v>8596.859136372037</v>
       </c>
       <c r="F18" t="n">
         <v>7703.426630772415</v>
@@ -1431,10 +1431,10 @@
         <v>7642.33708131301</v>
       </c>
       <c r="D19" t="n">
-        <v>6577.389009518573</v>
+        <v>6608.175646005654</v>
       </c>
       <c r="E19" t="n">
-        <v>8634.880882652276</v>
+        <v>8628.458635023815</v>
       </c>
       <c r="F19" t="n">
         <v>7642.33708131301</v>
@@ -1484,10 +1484,10 @@
         <v>7583.218162613849</v>
       </c>
       <c r="D20" t="n">
-        <v>6589.660248243786</v>
+        <v>6528.111122574296</v>
       </c>
       <c r="E20" t="n">
-        <v>8604.593444119526</v>
+        <v>8530.537623497245</v>
       </c>
       <c r="F20" t="n">
         <v>7583.218162613849</v>
@@ -1537,10 +1537,10 @@
         <v>7522.128613291383</v>
       </c>
       <c r="D21" t="n">
-        <v>7074.861077008391</v>
+        <v>6994.679453798813</v>
       </c>
       <c r="E21" t="n">
-        <v>9121.708208056774</v>
+        <v>9090.581445835573</v>
       </c>
       <c r="F21" t="n">
         <v>7522.128613291383</v>
@@ -1590,10 +1590,10 @@
         <v>7461.039063874008</v>
       </c>
       <c r="D22" t="n">
-        <v>6662.843227041536</v>
+        <v>6654.956311174034</v>
       </c>
       <c r="E22" t="n">
-        <v>8620.568977544339</v>
+        <v>8650.281557307029</v>
       </c>
       <c r="F22" t="n">
         <v>7461.039063874008</v>
@@ -1643,10 +1643,10 @@
         <v>7401.920145083001</v>
       </c>
       <c r="D23" t="n">
-        <v>6692.137339446456</v>
+        <v>6683.188234839754</v>
       </c>
       <c r="E23" t="n">
-        <v>8770.935629046167</v>
+        <v>8728.36683408613</v>
       </c>
       <c r="F23" t="n">
         <v>7401.920145083001</v>
@@ -1696,10 +1696,10 @@
         <v>7340.830595649208</v>
       </c>
       <c r="D24" t="n">
-        <v>5696.945740034223</v>
+        <v>5701.039274313932</v>
       </c>
       <c r="E24" t="n">
-        <v>7764.563785702449</v>
+        <v>7695.259771577152</v>
       </c>
       <c r="F24" t="n">
         <v>7340.830595649208</v>
@@ -1749,10 +1749,10 @@
         <v>7281.711676842313</v>
       </c>
       <c r="D25" t="n">
-        <v>5810.363850964584</v>
+        <v>5774.883144425041</v>
       </c>
       <c r="E25" t="n">
-        <v>7812.019003657515</v>
+        <v>7796.87327332487</v>
       </c>
       <c r="F25" t="n">
         <v>7281.711676842313</v>
@@ -1802,10 +1802,10 @@
         <v>7220.62212740852</v>
       </c>
       <c r="D26" t="n">
-        <v>5965.2891071772</v>
+        <v>5988.280764838042</v>
       </c>
       <c r="E26" t="n">
-        <v>8076.445073391257</v>
+        <v>8079.079550152994</v>
       </c>
       <c r="F26" t="n">
         <v>7220.62212740852</v>
@@ -1855,10 +1855,10 @@
         <v>7159.532578052951</v>
       </c>
       <c r="D27" t="n">
-        <v>5353.520619636673</v>
+        <v>5253.321197379323</v>
       </c>
       <c r="E27" t="n">
-        <v>7224.429034239894</v>
+        <v>7244.191638694478</v>
       </c>
       <c r="F27" t="n">
         <v>7159.532578052951</v>
@@ -1908,10 +1908,10 @@
         <v>7104.354920570502</v>
       </c>
       <c r="D28" t="n">
-        <v>5955.7212502538</v>
+        <v>5995.956087297934</v>
       </c>
       <c r="E28" t="n">
-        <v>8071.407525693367</v>
+        <v>8113.221818954796</v>
       </c>
       <c r="F28" t="n">
         <v>7104.354920570502</v>
@@ -1961,10 +1961,10 @@
         <v>7043.265371248966</v>
       </c>
       <c r="D29" t="n">
-        <v>5281.604691174746</v>
+        <v>5238.510836687055</v>
       </c>
       <c r="E29" t="n">
-        <v>7293.157451926919</v>
+        <v>7340.486471264332</v>
       </c>
       <c r="F29" t="n">
         <v>7043.265371248966</v>
@@ -2014,10 +2014,10 @@
         <v>6984.146452550708</v>
       </c>
       <c r="D30" t="n">
-        <v>5805.115428222071</v>
+        <v>5872.49932170237</v>
       </c>
       <c r="E30" t="n">
-        <v>7908.509835876995</v>
+        <v>7930.740390457627</v>
       </c>
       <c r="F30" t="n">
         <v>6984.146452550708</v>
@@ -2067,10 +2067,10 @@
         <v>6923.059016087832</v>
       </c>
       <c r="D31" t="n">
-        <v>5847.976462174464</v>
+        <v>5810.358445085731</v>
       </c>
       <c r="E31" t="n">
-        <v>7924.164392464438</v>
+        <v>7844.074964685936</v>
       </c>
       <c r="F31" t="n">
         <v>6923.059016087832</v>
@@ -2120,10 +2120,10 @@
         <v>6863.942142091497</v>
       </c>
       <c r="D32" t="n">
-        <v>6031.45143356637</v>
+        <v>5998.111173611856</v>
       </c>
       <c r="E32" t="n">
-        <v>8048.726286981975</v>
+        <v>7967.50071099022</v>
       </c>
       <c r="F32" t="n">
         <v>6863.942142091497</v>
@@ -2173,10 +2173,10 @@
         <v>6802.854705628619</v>
       </c>
       <c r="D33" t="n">
-        <v>6289.120444096457</v>
+        <v>6309.552709867652</v>
       </c>
       <c r="E33" t="n">
-        <v>8393.384782345016</v>
+        <v>8336.372577837159</v>
       </c>
       <c r="F33" t="n">
         <v>6802.854705628619</v>
@@ -2226,10 +2226,10 @@
         <v>6741.81146865464</v>
       </c>
       <c r="D34" t="n">
-        <v>5813.48986080257</v>
+        <v>5757.797571542124</v>
       </c>
       <c r="E34" t="n">
-        <v>7872.101782379439</v>
+        <v>7870.844398682479</v>
       </c>
       <c r="F34" t="n">
         <v>6741.81146865464</v>
@@ -2279,10 +2279,10 @@
         <v>6682.737368357238</v>
       </c>
       <c r="D35" t="n">
-        <v>6021.830127189343</v>
+        <v>6112.025378901358</v>
       </c>
       <c r="E35" t="n">
-        <v>8227.725900077936</v>
+        <v>8123.512129878573</v>
       </c>
       <c r="F35" t="n">
         <v>6682.737368357238</v>
@@ -2332,10 +2332,10 @@
         <v>6621.727472006271</v>
       </c>
       <c r="D36" t="n">
-        <v>5122.801421239561</v>
+        <v>5140.766362050606</v>
       </c>
       <c r="E36" t="n">
-        <v>7184.424794490663</v>
+        <v>7150.510875254947</v>
       </c>
       <c r="F36" t="n">
         <v>6621.727472006271</v>
@@ -2385,10 +2385,10 @@
         <v>6562.685636827918</v>
       </c>
       <c r="D37" t="n">
-        <v>4790.667110632104</v>
+        <v>4766.47878142488</v>
       </c>
       <c r="E37" t="n">
-        <v>6839.311015664483</v>
+        <v>6864.468650823681</v>
       </c>
       <c r="F37" t="n">
         <v>6562.685636827918</v>
@@ -2438,10 +2438,10 @@
         <v>6501.694085854238</v>
       </c>
       <c r="D38" t="n">
-        <v>5341.222491141437</v>
+        <v>5308.283915652062</v>
       </c>
       <c r="E38" t="n">
-        <v>7369.372716465249</v>
+        <v>7314.717641205684</v>
       </c>
       <c r="F38" t="n">
         <v>6501.694085854238</v>
@@ -2491,10 +2491,10 @@
         <v>6440.70253488056</v>
       </c>
       <c r="D39" t="n">
-        <v>4909.148481248035</v>
+        <v>4962.318211296273</v>
       </c>
       <c r="E39" t="n">
-        <v>6953.348442725017</v>
+        <v>7009.588443101298</v>
       </c>
       <c r="F39" t="n">
         <v>6440.70253488056</v>
@@ -2544,10 +2544,10 @@
         <v>6385.613392065624</v>
       </c>
       <c r="D40" t="n">
-        <v>5148.945689824408</v>
+        <v>5170.311895734191</v>
       </c>
       <c r="E40" t="n">
-        <v>7242.363926879907</v>
+        <v>7299.235756059322</v>
       </c>
       <c r="F40" t="n">
         <v>6385.613392065624</v>
@@ -2597,10 +2597,10 @@
         <v>6324.664860411091</v>
       </c>
       <c r="D41" t="n">
-        <v>4320.586317970578</v>
+        <v>4368.957489935641</v>
       </c>
       <c r="E41" t="n">
-        <v>6265.096643451129</v>
+        <v>6327.118778235479</v>
       </c>
       <c r="F41" t="n">
         <v>6324.664860411091</v>
@@ -2650,10 +2650,10 @@
         <v>6265.682410422834</v>
       </c>
       <c r="D42" t="n">
-        <v>5302.47891545297</v>
+        <v>5261.254754224949</v>
       </c>
       <c r="E42" t="n">
-        <v>7322.727043863674</v>
+        <v>7279.511691926915</v>
       </c>
       <c r="F42" t="n">
         <v>6265.682410422834</v>
@@ -2703,10 +2703,10 @@
         <v>6380.223609843847</v>
       </c>
       <c r="D43" t="n">
-        <v>5380.203541042606</v>
+        <v>5329.320968406549</v>
       </c>
       <c r="E43" t="n">
-        <v>7419.529345976118</v>
+        <v>7312.49823426638</v>
       </c>
       <c r="F43" t="n">
         <v>6380.223609843847</v>
@@ -2756,10 +2756,10 @@
         <v>6491.069931864183</v>
       </c>
       <c r="D44" t="n">
-        <v>5738.200367329659</v>
+        <v>5722.969041955869</v>
       </c>
       <c r="E44" t="n">
-        <v>7765.972554800856</v>
+        <v>7720.995629931548</v>
       </c>
       <c r="F44" t="n">
         <v>6491.069931864183</v>
@@ -2809,10 +2809,10 @@
         <v>6683.731103811362</v>
       </c>
       <c r="D45" t="n">
-        <v>6179.829494553474</v>
+        <v>6229.34498529601</v>
       </c>
       <c r="E45" t="n">
-        <v>8240.311665363817</v>
+        <v>8258.773117008019</v>
       </c>
       <c r="F45" t="n">
         <v>6683.731103811362</v>
@@ -2862,10 +2862,10 @@
         <v>6876.392275758541</v>
       </c>
       <c r="D46" t="n">
-        <v>5701.026505992236</v>
+        <v>5836.51545287418</v>
       </c>
       <c r="E46" t="n">
-        <v>7815.4333242926</v>
+        <v>7864.047507618763</v>
       </c>
       <c r="F46" t="n">
         <v>6876.392275758541</v>
@@ -2915,10 +2915,10 @@
         <v>7062.838571191295</v>
       </c>
       <c r="D47" t="n">
-        <v>6669.940128170767</v>
+        <v>6565.484775825685</v>
       </c>
       <c r="E47" t="n">
-        <v>8662.472061305029</v>
+        <v>8608.831737133123</v>
       </c>
       <c r="F47" t="n">
         <v>7062.838571191295</v>
@@ -2968,10 +2968,10 @@
         <v>7255.511813539953</v>
       </c>
       <c r="D48" t="n">
-        <v>5745.917070138696</v>
+        <v>5862.982728928147</v>
       </c>
       <c r="E48" t="n">
-        <v>7948.402695441559</v>
+        <v>7917.277383266491</v>
       </c>
       <c r="F48" t="n">
         <v>7255.511813539953</v>
@@ -3021,10 +3021,10 @@
         <v>7441.969790006395</v>
       </c>
       <c r="D49" t="n">
-        <v>5324.746663082304</v>
+        <v>5399.4127457863</v>
       </c>
       <c r="E49" t="n">
-        <v>7403.293222403155</v>
+        <v>7473.051935813731</v>
       </c>
       <c r="F49" t="n">
         <v>7441.969790006395</v>
@@ -3074,10 +3074,10 @@
         <v>7634.665712742171</v>
       </c>
       <c r="D50" t="n">
-        <v>6401.560362942814</v>
+        <v>6351.414712018121</v>
       </c>
       <c r="E50" t="n">
-        <v>8428.857728139599</v>
+        <v>8407.242524886364</v>
       </c>
       <c r="F50" t="n">
         <v>7634.665712742171</v>
@@ -3127,10 +3127,10 @@
         <v>7827.361635477946</v>
       </c>
       <c r="D51" t="n">
-        <v>6624.39732802912</v>
+        <v>6678.462165843358</v>
       </c>
       <c r="E51" t="n">
-        <v>8676.695667843571</v>
+        <v>8733.236875856868</v>
       </c>
       <c r="F51" t="n">
         <v>7827.361635477946</v>
@@ -3180,10 +3180,10 @@
         <v>8007.62556319851</v>
       </c>
       <c r="D52" t="n">
-        <v>7140.254079215515</v>
+        <v>7104.52548977543</v>
       </c>
       <c r="E52" t="n">
-        <v>9188.562466800819</v>
+        <v>9118.761868911899</v>
       </c>
       <c r="F52" t="n">
         <v>8007.62556319851</v>
@@ -3233,10 +3233,10 @@
         <v>8200.322356909319</v>
       </c>
       <c r="D53" t="n">
-        <v>6975.16315441596</v>
+        <v>6924.62036527379</v>
       </c>
       <c r="E53" t="n">
-        <v>8967.91148652479</v>
+        <v>9032.965586374483</v>
       </c>
       <c r="F53" t="n">
         <v>8200.322356909319</v>
@@ -3286,10 +3286,10 @@
         <v>8386.803125016553</v>
       </c>
       <c r="D54" t="n">
-        <v>7176.390354092208</v>
+        <v>7141.669253190628</v>
       </c>
       <c r="E54" t="n">
-        <v>9159.778227670042</v>
+        <v>9220.444901272875</v>
       </c>
       <c r="F54" t="n">
         <v>8386.803125016553</v>
@@ -3339,10 +3339,10 @@
         <v>8579.49991871876</v>
       </c>
       <c r="D55" t="n">
-        <v>7483.695212208245</v>
+        <v>7469.538955354137</v>
       </c>
       <c r="E55" t="n">
-        <v>9548.095730372977</v>
+        <v>9469.627990936908</v>
       </c>
       <c r="F55" t="n">
         <v>8579.49991871876</v>
@@ -3392,10 +3392,10 @@
         <v>8765.980686817669</v>
       </c>
       <c r="D56" t="n">
-        <v>7533.769533438935</v>
+        <v>7689.628841600445</v>
       </c>
       <c r="E56" t="n">
-        <v>9684.281219208287</v>
+        <v>9715.78087064321</v>
       </c>
       <c r="F56" t="n">
         <v>8765.980686817669</v>
@@ -3445,10 +3445,10 @@
         <v>8958.677480580731</v>
       </c>
       <c r="D57" t="n">
-        <v>8558.618050040295</v>
+        <v>8515.580585279782</v>
       </c>
       <c r="E57" t="n">
-        <v>10508.87453363837</v>
+        <v>10507.32344546824</v>
       </c>
       <c r="F57" t="n">
         <v>8958.677480580731</v>
@@ -3498,10 +3498,10 @@
         <v>9151.374274343796</v>
       </c>
       <c r="D58" t="n">
-        <v>8602.110251316401</v>
+        <v>8451.916590269149</v>
       </c>
       <c r="E58" t="n">
-        <v>10483.78219685814</v>
+        <v>10630.1047667302</v>
       </c>
       <c r="F58" t="n">
         <v>9151.374274343796</v>
@@ -3551,10 +3551,10 @@
         <v>9337.8550425016</v>
       </c>
       <c r="D59" t="n">
-        <v>8547.33260891389</v>
+        <v>8431.327479225571</v>
       </c>
       <c r="E59" t="n">
-        <v>10609.8204830514</v>
+        <v>10503.48657708872</v>
       </c>
       <c r="F59" t="n">
         <v>9337.8550425016</v>
@@ -3604,10 +3604,10 @@
         <v>9530.551836289</v>
       </c>
       <c r="D60" t="n">
-        <v>7765.779433169114</v>
+        <v>7747.919545878106</v>
       </c>
       <c r="E60" t="n">
-        <v>9796.463940461001</v>
+        <v>9802.194266336526</v>
       </c>
       <c r="F60" t="n">
         <v>9530.551836289</v>
@@ -3657,10 +3657,10 @@
         <v>9717.032604470354</v>
       </c>
       <c r="D61" t="n">
-        <v>8504.220560456673</v>
+        <v>8481.622640498959</v>
       </c>
       <c r="E61" t="n">
-        <v>10511.36698699942</v>
+        <v>10585.24671998397</v>
       </c>
       <c r="F61" t="n">
         <v>9717.032604470354</v>
@@ -3710,10 +3710,10 @@
         <v>9909.729398363517</v>
       </c>
       <c r="D62" t="n">
-        <v>8714.253965304837</v>
+        <v>8750.011255012934</v>
       </c>
       <c r="E62" t="n">
-        <v>10801.94570956919</v>
+        <v>10786.65946516128</v>
       </c>
       <c r="F62" t="n">
         <v>9909.729398363517</v>
@@ -3763,10 +3763,10 @@
         <v>10102.42619225668</v>
       </c>
       <c r="D63" t="n">
-        <v>7891.247778993226</v>
+        <v>7888.77694094467</v>
       </c>
       <c r="E63" t="n">
-        <v>9882.63083224422</v>
+        <v>10004.932280719</v>
       </c>
       <c r="F63" t="n">
         <v>10102.42619225668</v>
@@ -3816,10 +3816,10 @@
         <v>10276.47490932147</v>
       </c>
       <c r="D64" t="n">
-        <v>9201.841386502416</v>
+        <v>9282.699582166077</v>
       </c>
       <c r="E64" t="n">
-        <v>11328.98823952658</v>
+        <v>11322.05533240447</v>
       </c>
       <c r="F64" t="n">
         <v>10276.47490932147</v>
@@ -3869,10 +3869,10 @@
         <v>10469.17170321463</v>
       </c>
       <c r="D65" t="n">
-        <v>8960.487496012343</v>
+        <v>8943.45254874802</v>
       </c>
       <c r="E65" t="n">
-        <v>11067.35092142093</v>
+        <v>10891.90019929567</v>
       </c>
       <c r="F65" t="n">
         <v>10469.17170321463</v>
@@ -3922,10 +3922,10 @@
         <v>10655.65247149834</v>
       </c>
       <c r="D66" t="n">
-        <v>9464.572890676465</v>
+        <v>9475.425210261456</v>
       </c>
       <c r="E66" t="n">
-        <v>11478.73103401617</v>
+        <v>11523.80960344436</v>
       </c>
       <c r="F66" t="n">
         <v>10655.65247149834</v>
@@ -3975,10 +3975,10 @@
         <v>10848.3492653915</v>
       </c>
       <c r="D67" t="n">
-        <v>9740.260777475207</v>
+        <v>9795.132786629471</v>
       </c>
       <c r="E67" t="n">
-        <v>11768.81054113863</v>
+        <v>11743.79162209723</v>
       </c>
       <c r="F67" t="n">
         <v>10848.3492653915</v>
@@ -4028,10 +4028,10 @@
         <v>11034.83003367521</v>
       </c>
       <c r="D68" t="n">
-        <v>10053.52060870764</v>
+        <v>9985.589426714025</v>
       </c>
       <c r="E68" t="n">
-        <v>12024.6945736841</v>
+        <v>12096.32904029082</v>
       </c>
       <c r="F68" t="n">
         <v>11034.83003367521</v>
@@ -4081,10 +4081,10 @@
         <v>11227.52682756837</v>
       </c>
       <c r="D69" t="n">
-        <v>10810.10956686758</v>
+        <v>10709.63605321226</v>
       </c>
       <c r="E69" t="n">
-        <v>12855.78709652794</v>
+        <v>12881.19036633144</v>
       </c>
       <c r="F69" t="n">
         <v>11227.52682756837</v>
@@ -4134,10 +4134,10 @@
         <v>11420.22362146153</v>
       </c>
       <c r="D70" t="n">
-        <v>10630.1037704231</v>
+        <v>10700.70686398539</v>
       </c>
       <c r="E70" t="n">
-        <v>12703.05352130348</v>
+        <v>12700.42938246804</v>
       </c>
       <c r="F70" t="n">
         <v>11420.22362146153</v>
@@ -4187,10 +4187,10 @@
         <v>11606.70438974524</v>
       </c>
       <c r="D71" t="n">
-        <v>10904.99601273969</v>
+        <v>10970.5828492396</v>
       </c>
       <c r="E71" t="n">
-        <v>12960.55148480017</v>
+        <v>12939.93092804057</v>
       </c>
       <c r="F71" t="n">
         <v>11606.70438974524</v>
@@ -4240,10 +4240,10 @@
         <v>11799.4011836384</v>
       </c>
       <c r="D72" t="n">
-        <v>10139.29192751145</v>
+        <v>10215.17523813768</v>
       </c>
       <c r="E72" t="n">
-        <v>12181.90869915634</v>
+        <v>12206.09793458186</v>
       </c>
       <c r="F72" t="n">
         <v>11799.4011836384</v>
@@ -4293,10 +4293,10 @@
         <v>11985.88195192211</v>
       </c>
       <c r="D73" t="n">
-        <v>10468.55594515306</v>
+        <v>10442.68569526017</v>
       </c>
       <c r="E73" t="n">
-        <v>12602.35836559184</v>
+        <v>12559.53297548579</v>
       </c>
       <c r="F73" t="n">
         <v>11985.88195192211</v>
@@ -4346,10 +4346,10 @@
         <v>12178.57874581527</v>
       </c>
       <c r="D74" t="n">
-        <v>11017.75384559027</v>
+        <v>10996.69163597583</v>
       </c>
       <c r="E74" t="n">
-        <v>12981.64473101491</v>
+        <v>13031.00750958818</v>
       </c>
       <c r="F74" t="n">
         <v>12178.57874581527</v>
@@ -4399,10 +4399,10 @@
         <v>12371.27553970843</v>
       </c>
       <c r="D75" t="n">
-        <v>10501.8957803693</v>
+        <v>10557.1059003609</v>
       </c>
       <c r="E75" t="n">
-        <v>12459.9340230107</v>
+        <v>12559.27204302307</v>
       </c>
       <c r="F75" t="n">
         <v>12371.27553970843</v>
@@ -4452,10 +4452,10 @@
         <v>12545.32425677322</v>
       </c>
       <c r="D76" t="n">
-        <v>11416.93689458153</v>
+        <v>11530.17147672826</v>
       </c>
       <c r="E76" t="n">
-        <v>13512.84977100845</v>
+        <v>13515.77206751882</v>
       </c>
       <c r="F76" t="n">
         <v>12545.32425677322</v>
@@ -4505,10 +4505,10 @@
         <v>12738.02105066638</v>
       </c>
       <c r="D77" t="n">
-        <v>10965.41306672744</v>
+        <v>11024.5585380896</v>
       </c>
       <c r="E77" t="n">
-        <v>13050.47358659556</v>
+        <v>13000.76182373143</v>
       </c>
       <c r="F77" t="n">
         <v>12738.02105066638</v>
@@ -4558,16 +4558,16 @@
         <v>12924.50181895009</v>
       </c>
       <c r="D78" t="n">
-        <v>11802.65429390345</v>
+        <v>11824.04912231428</v>
       </c>
       <c r="E78" t="n">
-        <v>13870.58326870557</v>
+        <v>13860.60868939619</v>
       </c>
       <c r="F78" t="n">
-        <v>12923.66590569197</v>
+        <v>12922.91720329752</v>
       </c>
       <c r="G78" t="n">
-        <v>12925.22945698423</v>
+        <v>12926.77774917501</v>
       </c>
       <c r="H78" t="n">
         <v>-74.04650871838072</v>
@@ -4611,16 +4611,16 @@
         <v>13117.19861284325</v>
       </c>
       <c r="D79" t="n">
-        <v>12038.13983864449</v>
+        <v>12083.50488917792</v>
       </c>
       <c r="E79" t="n">
-        <v>14050.65437937938</v>
+        <v>14078.54360111204</v>
       </c>
       <c r="F79" t="n">
-        <v>13108.6210714749</v>
+        <v>13108.34220283644</v>
       </c>
       <c r="G79" t="n">
-        <v>13125.02970378375</v>
+        <v>13127.86062139749</v>
       </c>
       <c r="H79" t="n">
         <v>-57.97046085048956</v>
@@ -4664,16 +4664,16 @@
         <v>13303.67938112696</v>
       </c>
       <c r="D80" t="n">
-        <v>12299.56041267351</v>
+        <v>12347.11718664211</v>
       </c>
       <c r="E80" t="n">
-        <v>14483.97491962617</v>
+        <v>14395.53028560634</v>
       </c>
       <c r="F80" t="n">
-        <v>13282.57398793136</v>
+        <v>13282.30201366924</v>
       </c>
       <c r="G80" t="n">
-        <v>13321.60595392943</v>
+        <v>13327.14130884809</v>
       </c>
       <c r="H80" t="n">
         <v>122.4928293564804</v>
@@ -4717,16 +4717,16 @@
         <v>13496.37617502012</v>
       </c>
       <c r="D81" t="n">
-        <v>13077.03615158319</v>
+        <v>13033.05328169703</v>
       </c>
       <c r="E81" t="n">
-        <v>15046.32092363452</v>
+        <v>15053.07941906355</v>
       </c>
       <c r="F81" t="n">
-        <v>13460.78795849614</v>
+        <v>13461.99677412937</v>
       </c>
       <c r="G81" t="n">
-        <v>13526.63868943012</v>
+        <v>13537.32217728388</v>
       </c>
       <c r="H81" t="n">
         <v>544.9216490953659</v>
@@ -4770,16 +4770,16 @@
         <v>13689.07296891328</v>
       </c>
       <c r="D82" t="n">
-        <v>12775.48031588245</v>
+        <v>12703.74695857071</v>
       </c>
       <c r="E82" t="n">
-        <v>14767.65435301672</v>
+        <v>14830.936922737</v>
       </c>
       <c r="F82" t="n">
-        <v>13629.97190169362</v>
+        <v>13637.7004167353</v>
       </c>
       <c r="G82" t="n">
-        <v>13736.3098963392</v>
+        <v>13748.74367979386</v>
       </c>
       <c r="H82" t="n">
         <v>69.43593998358621</v>
@@ -4823,16 +4823,16 @@
         <v>13875.55373719698</v>
       </c>
       <c r="D83" t="n">
-        <v>13334.41126321122</v>
+        <v>13296.41693747851</v>
       </c>
       <c r="E83" t="n">
-        <v>15294.75832885794</v>
+        <v>15368.13036148402</v>
       </c>
       <c r="F83" t="n">
-        <v>13793.8860075529</v>
+        <v>13806.30185166389</v>
       </c>
       <c r="G83" t="n">
-        <v>13940.62516011662</v>
+        <v>13958.89582520535</v>
       </c>
       <c r="H83" t="n">
         <v>434.5495069999135</v>
@@ -4876,16 +4876,16 @@
         <v>14068.25053109015</v>
       </c>
       <c r="D84" t="n">
-        <v>12531.93027880342</v>
+        <v>12579.44575413247</v>
       </c>
       <c r="E84" t="n">
-        <v>14566.14573275578</v>
+        <v>14638.6865069045</v>
       </c>
       <c r="F84" t="n">
-        <v>13965.83191390243</v>
+        <v>13977.56165533008</v>
       </c>
       <c r="G84" t="n">
-        <v>14156.07571988703</v>
+        <v>14175.42026093071</v>
       </c>
       <c r="H84" t="n">
         <v>-488.4625868910301</v>
@@ -4929,16 +4929,16 @@
         <v>14254.73129937385</v>
       </c>
       <c r="D85" t="n">
-        <v>12512.67555891318</v>
+        <v>12448.86121369889</v>
       </c>
       <c r="E85" t="n">
-        <v>14487.34887649479</v>
+        <v>14525.41400337194</v>
       </c>
       <c r="F85" t="n">
-        <v>14130.77724118947</v>
+        <v>14142.94415782768</v>
       </c>
       <c r="G85" t="n">
-        <v>14361.38181196787</v>
+        <v>14385.37514996267</v>
       </c>
       <c r="H85" t="n">
         <v>-766.0300161884878</v>
@@ -4982,16 +4982,16 @@
         <v>14447.42809326701</v>
       </c>
       <c r="D86" t="n">
-        <v>13240.65603067064</v>
+        <v>13234.38590389193</v>
       </c>
       <c r="E86" t="n">
-        <v>15326.82973106156</v>
+        <v>15240.33131272206</v>
       </c>
       <c r="F86" t="n">
-        <v>14298.08129003086</v>
+        <v>14312.09132453817</v>
       </c>
       <c r="G86" t="n">
-        <v>14580.03358289335</v>
+        <v>14606.76309367282</v>
       </c>
       <c r="H86" t="n">
         <v>-202.7908204025614</v>
@@ -5035,16 +5035,16 @@
         <v>14640.12488716018</v>
       </c>
       <c r="D87" t="n">
-        <v>13118.23921916355</v>
+        <v>13103.75639363844</v>
       </c>
       <c r="E87" t="n">
-        <v>15140.69559429624</v>
+        <v>15207.12786783226</v>
       </c>
       <c r="F87" t="n">
-        <v>14465.05613694514</v>
+        <v>14478.38954580977</v>
       </c>
       <c r="G87" t="n">
-        <v>14798.93825447157</v>
+        <v>14825.57619563611</v>
       </c>
       <c r="H87" t="n">
         <v>-488.8508129353868</v>
@@ -5088,16 +5088,16 @@
         <v>14814.17360422497</v>
       </c>
       <c r="D88" t="n">
-        <v>13586.98180840882</v>
+        <v>13676.41467695774</v>
       </c>
       <c r="E88" t="n">
-        <v>15686.63555742191</v>
+        <v>15639.44138150561</v>
       </c>
       <c r="F88" t="n">
-        <v>14615.33146456697</v>
+        <v>14626.66763985786</v>
       </c>
       <c r="G88" t="n">
-        <v>15000.49473955494</v>
+        <v>15025.3257142343</v>
       </c>
       <c r="H88" t="n">
         <v>-164.0965992396515</v>
@@ -5141,16 +5141,16 @@
         <v>15006.87039811813</v>
       </c>
       <c r="D89" t="n">
-        <v>12971.04792568062</v>
+        <v>12949.01136279724</v>
       </c>
       <c r="E89" t="n">
-        <v>15040.48197698955</v>
+        <v>15121.57769973881</v>
       </c>
       <c r="F89" t="n">
-        <v>14778.79312485713</v>
+        <v>14790.52724129685</v>
       </c>
       <c r="G89" t="n">
-        <v>15221.97720854548</v>
+        <v>15242.54511242475</v>
       </c>
       <c r="H89" t="n">
         <v>-1008.539717227013</v>
@@ -5194,16 +5194,16 @@
         <v>15193.35116640184</v>
       </c>
       <c r="D90" t="n">
-        <v>14148.53044816486</v>
+        <v>14155.25975266961</v>
       </c>
       <c r="E90" t="n">
-        <v>16236.92195618906</v>
+        <v>16240.45940452706</v>
       </c>
       <c r="F90" t="n">
-        <v>14935.88142861313</v>
+        <v>14945.82365748811</v>
       </c>
       <c r="G90" t="n">
-        <v>15436.47114763873</v>
+        <v>15457.87328091831</v>
       </c>
       <c r="H90" t="n">
         <v>18.78460699707145</v>
@@ -5247,16 +5247,16 @@
         <v>15386.047960295</v>
       </c>
       <c r="D91" t="n">
-        <v>14303.58109208181</v>
+        <v>14359.59255032457</v>
       </c>
       <c r="E91" t="n">
-        <v>16323.08587373855</v>
+        <v>16421.15552470448</v>
       </c>
       <c r="F91" t="n">
-        <v>15100.60672495457</v>
+        <v>15102.70222237393</v>
       </c>
       <c r="G91" t="n">
-        <v>15656.56821906238</v>
+        <v>15683.73552860144</v>
       </c>
       <c r="H91" t="n">
         <v>-46.50208090179454</v>
@@ -5300,16 +5300,16 @@
         <v>15572.5287285787</v>
       </c>
       <c r="D92" t="n">
-        <v>14760.8444120163</v>
+        <v>14752.89692732382</v>
       </c>
       <c r="E92" t="n">
-        <v>16889.49025564013</v>
+        <v>16903.88654623784</v>
       </c>
       <c r="F92" t="n">
-        <v>15254.11843289046</v>
+        <v>15260.09414666801</v>
       </c>
       <c r="G92" t="n">
-        <v>15876.37192641766</v>
+        <v>15899.32666615728</v>
       </c>
       <c r="H92" t="n">
         <v>241.2327833504738</v>
@@ -5353,16 +5353,16 @@
         <v>15765.22552247187</v>
       </c>
       <c r="D93" t="n">
-        <v>15155.17469989075</v>
+        <v>15211.29414283666</v>
       </c>
       <c r="E93" t="n">
-        <v>17333.48302047473</v>
+        <v>17381.36659743774</v>
       </c>
       <c r="F93" t="n">
-        <v>15419.13135645628</v>
+        <v>15416.63881132159</v>
       </c>
       <c r="G93" t="n">
-        <v>16099.06356649359</v>
+        <v>16124.59925573948</v>
       </c>
       <c r="H93" t="n">
         <v>525.8127424460706</v>
@@ -5406,16 +5406,16 @@
         <v>15957.92231636503</v>
       </c>
       <c r="D94" t="n">
-        <v>14767.37878673296</v>
+        <v>14799.16217298245</v>
       </c>
       <c r="E94" t="n">
-        <v>16944.35830485387</v>
+        <v>16980.51423020019</v>
       </c>
       <c r="F94" t="n">
-        <v>15579.61487815461</v>
+        <v>15579.26444342802</v>
       </c>
       <c r="G94" t="n">
-        <v>16321.11581037579</v>
+        <v>16351.0683536678</v>
       </c>
       <c r="H94" t="n">
         <v>-94.46110979261724</v>
